--- a/Mortage Rates.xlsx
+++ b/Mortage Rates.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1789"/>
+  <dimension ref="A1:E1790"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -34036,6 +34036,25 @@
         <v>-0.041538461538461476</v>
       </c>
     </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>-0.010909090909090839</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>-0.025196850393700673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Mortage Rates.xlsx
+++ b/Mortage Rates.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1790"/>
+  <dimension ref="A1:E1791"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -34055,6 +34055,25 @@
         <v>-0.025196850393700673</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>0.024029574861367815</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>-0.006389776357827482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Mortage Rates.xlsx
+++ b/Mortage Rates.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1791"/>
+  <dimension ref="A1:E1794"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -34074,6 +34074,63 @@
         <v>-0.006389776357827482</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>-0.0036429872495447107</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>-0.014285714285714263</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>-0.009009009009008978</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>-0.025236593059936932</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>-0.016274864376130172</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>-0.023809523809523725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
